--- a/Documentos/Tabela de requisitos.xlsx
+++ b/Documentos/Tabela de requisitos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28919"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="265" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E880068-DF90-4CD4-9592-3862C4F9B150}"/>
+  <xr:revisionPtr revIDLastSave="298" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AB5A96-C894-43AA-A584-C2A35F86FF64}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Funcionais" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -49,10 +49,10 @@
     <t>RF01</t>
   </si>
   <si>
-    <t>Cadastro e Login de Usuário</t>
-  </si>
-  <si>
-    <t>Permitir que o usuário se cadastre e faça login com e-mail e senha, para salvar builds e receber promoções.</t>
+    <t>Cadastro de Usuário</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que usuários se cadastrem com seus dados para salvar builds e receber promoções.</t>
   </si>
   <si>
     <t>Alta</t>
@@ -64,76 +64,76 @@
     <t>Definição de Orçamento</t>
   </si>
   <si>
-    <t>Permitir que o usuário informe seu teto de gastos para a montagem.</t>
+    <t>O sistema deve permitir que o usuário informe o valor máximo disponível para montar o PC.</t>
   </si>
   <si>
     <t>RF03</t>
   </si>
   <si>
-    <t>Entrada de Perfil de Uso</t>
-  </si>
-  <si>
-    <t>Permitir que o usuário escolha ou descreva o perfil (ex.: gamer, escritório, edição) e, no caso de empresas, as condições de ambiente (calor, poeira etc.).</t>
+    <t>Recomendação Automatizada</t>
+  </si>
+  <si>
+    <t>O sistema deve sugerir peças automaticamente com base nas necessidades informadas e no orçamento do usuário.</t>
   </si>
   <si>
     <t>RF04</t>
   </si>
   <si>
-    <t>Recomendação Automatizada</t>
-  </si>
-  <si>
-    <t>Sugerir peças com IA com base no orçamento, no perfil de uso e nas condições de ambiente informadas.</t>
+    <t>Montagem Manual de Build</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário monte o PC escolhendo manualmente cada peça.</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
   <si>
     <t>RF05</t>
   </si>
   <si>
-    <t>Montagem Manual de Build</t>
-  </si>
-  <si>
-    <t>Permitir que o usuário monte manualmente o PC, selecionando cada componente de forma livre.</t>
-  </si>
-  <si>
-    <t>Média</t>
+    <t>Avaliação de Compatibilidade</t>
+  </si>
+  <si>
+    <t>O sistema deve avisar sobre compatibilidade ruim ou excelente entre peças escolhidas.</t>
   </si>
   <si>
     <t>RF06</t>
   </si>
   <si>
-    <t>Verificação de Compatibilidade</t>
-  </si>
-  <si>
-    <t>Avisar imediatamente se houve incompatibilidade entre peças selecionadas ou se o orçamento não comporta a build desejada.</t>
+    <t>Salvar Build no Perfil</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário salve a montagem realizada no seu perfil.</t>
   </si>
   <si>
     <t>RF07</t>
   </si>
   <si>
-    <t>Sugestão de Ajuste de Orçamento</t>
-  </si>
-  <si>
-    <t>Caso o orçamento seja insuficiente, sugerir valor mínimo de acréscimo ou uma build simplificada que caiba no valor informado.</t>
+    <t>Exportar Build</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário exporte a build para um arquivo.</t>
+  </si>
+  <si>
+    <t>Baixa</t>
   </si>
   <si>
     <t>RF08</t>
   </si>
   <si>
-    <t>Salvar Build no Perfil</t>
-  </si>
-  <si>
-    <t>Salvar as configurações de build no perfil do usuário para consulta futura.</t>
+    <t>Sugestão de Upgrade de Orçamento</t>
+  </si>
+  <si>
+    <t>Caso o orçamento não seja suficiente, o sistema deve sugerir um valor médio de aumento para atender às necessidades informadas</t>
   </si>
   <si>
     <t>RF09</t>
   </si>
   <si>
-    <t>Exportar Build</t>
-  </si>
-  <si>
-    <t>Gerar um arquivo (PDF, JSON ou CSV) contendo a lista completa de componentes e valores.</t>
-  </si>
-  <si>
-    <t>Baixa</t>
+    <t>Sugestão Alternativa Inferior</t>
+  </si>
+  <si>
+    <t>O sistema deve oferecer sugestões de builds com desempenho um pouco abaixo do desejado, explicando os benefícios.</t>
   </si>
   <si>
     <t>RF10</t>
@@ -142,34 +142,34 @@
     <t>Links de Compra</t>
   </si>
   <si>
-    <t>Exibir links diretos para lojas especializadas com as melhores ofertas ou promoções disponíveis para cada peça.</t>
+    <t>O sistema deve oferecer links para lojas com os melhores preços ou promoções das peças sugeridas.</t>
   </si>
   <si>
     <t>RF11</t>
   </si>
   <si>
-    <t>Atualização Automática de Dados</t>
-  </si>
-  <si>
-    <t>Atualizar semanalmente (ou quinzenalmente, se necessário) preços e disponibilidade de componentes via scraping ou APIs.</t>
+    <t>Perfil de Uso Personalizado</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário informe o perfil desejado (ex: jogos, escritório, edição) ou forneça dados para que o sistema detecte.</t>
   </si>
   <si>
     <t>RF12</t>
   </si>
   <si>
-    <t>Suporte de IA</t>
-  </si>
-  <si>
-    <t>Oferecer suporte de Inteligência Artificial para refinar recomendações, aprender com escolhas anteriores e melhorar a assertividade.</t>
-  </si>
-  <si>
-    <t>RF13 </t>
-  </si>
-  <si>
-    <t>Chat Bot </t>
-  </si>
-  <si>
-    <t>Coletar as necessidades e interesses do usuário por chat bot </t>
+    <t>Sugestão por Ambiente</t>
+  </si>
+  <si>
+    <t>O sistema deve sugerir peças com base nas condições do ambiente em que o PC será usado (ex: calor, poeira).</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>Chat Bot</t>
+  </si>
+  <si>
+    <t>O sistema deve disponibilizar um chatbot para coletar necessidades e preferências do usuário de forma interativa.</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -178,6 +178,18 @@
     <t>RNF01</t>
   </si>
   <si>
+    <t>Suporte de Inteligência Artificial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deve utilizar uma IA para ajudar na recomendação de peças de acordo com as informações do usuário. </t>
+  </si>
+  <si>
+    <t>Integração</t>
+  </si>
+  <si>
+    <t>RNF02</t>
+  </si>
+  <si>
     <t>Responsividade</t>
   </si>
   <si>
@@ -187,7 +199,7 @@
     <t>Usabilidade</t>
   </si>
   <si>
-    <t>RNF02</t>
+    <t>RNF03</t>
   </si>
   <si>
     <t>Atualização de Dados</t>
@@ -199,7 +211,7 @@
     <t>Manutenibilidade</t>
   </si>
   <si>
-    <t>RNF03</t>
+    <t>RNF04</t>
   </si>
   <si>
     <t>Tempo de Resposta</t>
@@ -211,7 +223,7 @@
     <t>Desempenho</t>
   </si>
   <si>
-    <t>RNF04</t>
+    <t>RNF05</t>
   </si>
   <si>
     <t>Fluxo Guiado</t>
@@ -220,7 +232,7 @@
     <t>A interface deve guiar o usuário passo a passo, mas permitir visão única ao final.</t>
   </si>
   <si>
-    <t>RNF05</t>
+    <t>RNF06</t>
   </si>
   <si>
     <t>Segurança e Privacidade</t>
@@ -232,7 +244,7 @@
     <t>Segurança</t>
   </si>
   <si>
-    <t>RNF06</t>
+    <t>RNF07</t>
   </si>
   <si>
     <t>Compatibilidade de Navegadores</t>
@@ -244,7 +256,7 @@
     <t>Compatibilidade</t>
   </si>
   <si>
-    <t>RNF07</t>
+    <t>RNF08</t>
   </si>
   <si>
     <t>Disponibilidade</t>
@@ -256,7 +268,7 @@
     <t>Confiabilidade</t>
   </si>
   <si>
-    <t>RNF08</t>
+    <t>RNF09</t>
   </si>
   <si>
     <t>Backup e Recuperação</t>
@@ -265,7 +277,7 @@
     <t>Realizar backups automáticos diários das bases de usuários e builds, com processo de restauração testado periodicamente.</t>
   </si>
   <si>
-    <t>RNF09</t>
+    <t>RNF10</t>
   </si>
   <si>
     <t>Escalabilidade</t>
@@ -274,37 +286,13 @@
     <t>Suportar aumentos de carga (usuários simultâneos e volume de builds) sem degradação perceptível na experiência.</t>
   </si>
   <si>
-    <t>RNF10</t>
+    <t>RNF11</t>
   </si>
   <si>
     <t>Integração de Fontes de Dados</t>
   </si>
   <si>
     <t>Conectar via APIs ou scraping de forma confiável, com logs de erro e retentativas automáticas em caso de falha.</t>
-  </si>
-  <si>
-    <t>Integração</t>
-  </si>
-  <si>
-    <t>RNF12 </t>
-  </si>
-  <si>
-    <t>Informações de Orçamento </t>
-  </si>
-  <si>
-    <t>Solicitar antes de iniciar a conversa com a IA. </t>
-  </si>
-  <si>
-    <t>RNF13 </t>
-  </si>
-  <si>
-    <t>Organização </t>
-  </si>
-  <si>
-    <t>Ao lado esquerdo será a tebela com as peças,  e a direita o chat bot </t>
-  </si>
-  <si>
-    <t>Design</t>
   </si>
 </sst>
 </file>
@@ -423,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -462,12 +450,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,8 +701,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A2E59FD-05C3-4992-BD70-D444344249D9}" name="Tabela2" displayName="Tabela2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D13" xr:uid="{1A2E59FD-05C3-4992-BD70-D444344249D9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A2E59FD-05C3-4992-BD70-D444344249D9}" name="Tabela2" displayName="Tabela2" ref="A1:D12" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D12" xr:uid="{1A2E59FD-05C3-4992-BD70-D444344249D9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B75C4E57-91BA-49F8-9219-503ACF4EC74F}" name="ID" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{86EDD74E-A2DC-4168-AF45-37AB493F2427}" name="Nome" dataDxfId="2"/>
@@ -1050,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -1132,21 +1114,21 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1">
@@ -1174,18 +1156,18 @@
         <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -1193,16 +1175,16 @@
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1">
@@ -1230,7 +1212,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1">
@@ -1272,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6758454A-3EA4-4A5B-8D8D-62E22C45B50B}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
@@ -1357,21 +1339,21 @@
         <v>61</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1">
@@ -1413,63 +1395,49 @@
         <v>76</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A13" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
